--- a/project/MyCar/app/通信协议.xlsx
+++ b/project/MyCar/app/通信协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>数据帧:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,47 +24,243 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x1A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据类型:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>数据位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧结束标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接应答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送到车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取Flash到调试器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试器发送到车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四个字节一帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AngSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AngPID_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AngToMotor_Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AngPID_P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AngSpeedSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>握手方式:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试器主动连接车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一页:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>数据长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hex字节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帧结束标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xA1</t>
+    <t>0xF1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xF2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xF1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xF2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入数据到Flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试器到车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K60写入数据完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xB4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xB2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方关于数据接收的应答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向对方发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车到调试器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xB2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K60发送数据完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K60开始发送Flash数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,18 +610,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D2" sqref="B1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,44 +635,277 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>4</v>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
